--- a/data/180_D_label_case.xlsx
+++ b/data/180_D_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,630 @@
         <v>0.003253174647611011</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.0068</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.003255090700043809</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.0203</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.003272398010313669</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.0338</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.003286680723317008</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.0473</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.003322573435070977</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.0608</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.003354622724552893</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.0743</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.003401176960220799</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.0878</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003462461217325202</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.1013</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.003518188923490936</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.1148</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.003599009384697257</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.1283</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.003674458588398215</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.1418</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.003767643416975066</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.1553</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.003878728881000273</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.1688</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.00398041202944913</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.1822</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.004104382017029143</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.1957</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.004217455034218181</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.2091</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.00435098724174806</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.2225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.004507621306980129</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.004654152214357232</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.2494</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.00483245894251761</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.00499490852054975</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.2762</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.005184297794364547</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.2895</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.005405548309188171</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.3029</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.005614003166295735</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.3162</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.005864573080266652</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.3296</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.006090020244103611</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.3429</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.006345014827246765</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.3562</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.006634710445298174</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.3695</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.006897234784339262</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.3827</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.007204012525951983</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.396</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.007477093228744953</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.4092</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.007793873395507594</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.4224</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.008163748954900322</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.4357</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.008504950544396608</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.4488</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.008898525662941593</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.4619</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00925577611777827</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.009682688188379397</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.4882</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.01019330149866628</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.5013</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.01067346687366789</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.5143</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.01122586923113815</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.5273</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.01171889203153939</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.5403</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.01229870364441002</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.5533</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.01299187195167677</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.5663</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.013646923186738</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.5792</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.01440151831233744</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.5921</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.01507224557350268</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.01587421223034778</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.6179</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.01686183126013454</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.6308</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0178357025337151</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.6435</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.01897384821235032</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.6562</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0200126077468794</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.02126912509575011</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.6817</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.02283172101197661</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.6944</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.02440830511992972</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.02625122929046637</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.7196</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.0279658483871573</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.7322</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.03006347007382561</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.7448</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.03271002162366039</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.7573</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.03546818760846596</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.7698</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0386334069247316</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.7822</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.04161493896975937</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.7946</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.04531313406491382</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.05001840763125631</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.8194</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.05492256123017933</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.8316</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.06046158733151535</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.8439</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.0653319033325082</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.8561</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.07124975180569129</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.8683</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.07874226964478596</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.8806</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.08593425755948933</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.8926</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.09381939474431786</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.9047</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.09850522732339988</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.9167</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.1033562393957892</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.9287</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1095178741243123</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.9408</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1103984033543652</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.9526</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1154289965711748</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.9645</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.1101872853803138</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.9763</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.1264689478237154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.9882</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.1630506596776358</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1684835159784838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
